--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590816.2938072961</v>
+        <v>588928.7122908942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>132.3849408889323</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>360.5444830033137</v>
+        <v>285.0120783583001</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.03418953492984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.838563623422226</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887373</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>175.5942940246731</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.8566199863817</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802967</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>94.47254573754982</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.4704758913031</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>84.30591571239086</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185851</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>218.037500636481</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.29542881855658</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>105.6571329437499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.6645747100851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.6571329437495</v>
       </c>
       <c r="W28" t="n">
-        <v>208.8943726614633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>22.14609241444782</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8328922122439337</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463181</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.0404291903644</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>766.0404291903644</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4419,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4513,22 +4513,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1560728187101</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.513150920515</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>759.2474523137644</v>
+        <v>836.4180700913882</v>
       </c>
       <c r="E5" t="n">
-        <v>759.2474523137644</v>
+        <v>836.4180700913882</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>495.9333588715792</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2519.781117255926</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>2167.012461985812</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.012461985812</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.012461985812</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.468242641993</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1292.414353243415</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1292.414353243415</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1292.414353243415</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.414353243415</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.414353243415</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.424802345397</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1064.424802345397</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1302.683676501151</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1302.683676501151</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1302.683676501151</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1013.26650646419</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>785.2769555661727</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.8632439327647</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1278.676370925093</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>989.5477321386516</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>734.8632439327647</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>734.8632439327647</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X19" t="n">
-        <v>734.8632439327647</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.8632439327647</v>
+        <v>157.600382103366</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,16 +5826,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
         <v>1302.911127126629</v>
@@ -5844,10 +5844,10 @@
         <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.5941600866653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>269.6579771587584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>269.6579771587584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>269.6579771587584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>122.768029660848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227919</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>620.242624916905</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W22" t="n">
-        <v>620.242624916905</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X22" t="n">
-        <v>620.242624916905</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.242624916905</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>177.1795914149468</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>326.2492756170067</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>940.1463453738954</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227922</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169054</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>620.2426249169054</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>392.253074018888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623274</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.4452354807077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>415.5090525528008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.227365522255</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>805.2378146242377</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.4452354807077</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,61 +6449,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,22 +6546,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030233</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215253</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749891</v>
+        <v>326.3571123076838</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440241</v>
+        <v>232.0013381767189</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1879.970519634378</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129307</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703943</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>498.9056400965593</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>745.6707680030233</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504517</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,13 +6859,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7023,13 +7023,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229681</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850452</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103137</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982978</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,49 +7096,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7257,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7309,19 +7309,19 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,10 +7363,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7488,19 +7488,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>159.1396882805848</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>570.0299571250974</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315615</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
         <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975556</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
         <v>2123.441607278215</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,16 +7570,16 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7798,19 +7798,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010316</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.49733361305221</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>50.62661940943656</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>32.78140656352421</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>94.13752431970613</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.13752431970531</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>38.86002301949827</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>297.3877236703351</v>
       </c>
       <c r="P27" t="n">
-        <v>219.9778004203351</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>5.100663089360268</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.6026921294538</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10671,16 +10671,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498451</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>20.63789864135489</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>103.4482642460534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>85.66716743252493</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>137.2416453459984</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.0525224452879</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.510060421908292</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>141.198139644821</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>146.4805103800782</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.9200786420097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="W28" t="n">
-        <v>77.62862567512764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.08461360356421</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>165.5114122175883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.572697820929511e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.153763938</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.153763938</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107428</v>
+        <v>366139.9236107424</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389279</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.796438928</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819122</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-468991.0286255509</v>
       </c>
       <c r="C6" t="n">
-        <v>120976.8505889935</v>
+        <v>120976.8505889936</v>
       </c>
       <c r="D6" t="n">
         <v>120976.8505889935</v>
       </c>
       <c r="E6" t="n">
-        <v>-287395.8162485455</v>
+        <v>-287493.2753745177</v>
       </c>
       <c r="F6" t="n">
-        <v>237764.2202283505</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="G6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023786</v>
       </c>
       <c r="H6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023784</v>
       </c>
       <c r="I6" t="n">
-        <v>237764.2202283505</v>
+        <v>237666.7611023788</v>
       </c>
       <c r="J6" t="n">
-        <v>61341.00103575738</v>
+        <v>61243.54190978565</v>
       </c>
       <c r="K6" t="n">
-        <v>185009.8796766072</v>
+        <v>184991.3859386722</v>
       </c>
       <c r="L6" t="n">
-        <v>216817.3889898443</v>
+        <v>216817.3889898447</v>
       </c>
       <c r="M6" t="n">
         <v>92359.28055687416</v>
       </c>
       <c r="N6" t="n">
-        <v>227160.2957907114</v>
+        <v>227160.2957907112</v>
       </c>
       <c r="O6" t="n">
-        <v>227160.2957907116</v>
+        <v>227160.2957907107</v>
       </c>
       <c r="P6" t="n">
-        <v>182997.6904878654</v>
+        <v>182997.6904878655</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26741,28 +26741,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>222.2981007317507</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W4" t="n">
-        <v>83.36203824822886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>46.33156273839774</v>
+        <v>121.8639673834113</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>281.6844347131688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023425</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>152.1579644454618</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>54.3902011122461</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168107</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,10 +30001,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.5103663981263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>363.8358297686019</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>361.0509964599028</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>120.7944393485983</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>376.5012265608142</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>182.1505571047795</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.77020197440498</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>579.7514259114432</v>
       </c>
       <c r="P27" t="n">
-        <v>427.0712153518598</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>462.5180961366869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>212.1940780208849</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>363.8358297686019</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>446.7972655274668</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003114</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37625,16 +37625,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.54807759626155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
